--- a/nr-update-priorities/ig/StructureDefinition-fr-core-organization-pole.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-organization-pole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:44:22+00:00</t>
+    <t>2025-12-05T08:48:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-organization-pole.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-organization-pole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:48:00+00:00</t>
+    <t>2025-12-05T09:22:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-organization-pole.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-organization-pole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T08:24:40+00:00</t>
+    <t>2025-12-29T09:23:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-organization-pole.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-organization-pole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T09:23:18+00:00</t>
+    <t>2025-12-29T09:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-organization-pole.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-organization-pole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T09:56:40+00:00</t>
+    <t>2025-12-29T10:13:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-organization-pole.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-organization-pole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:13:00+00:00</t>
+    <t>2025-12-29T10:22:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-organization-pole.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-organization-pole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:22:56+00:00</t>
+    <t>2025-12-29T10:23:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-organization-pole.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-organization-pole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:23:39+00:00</t>
+    <t>2025-12-29T10:37:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-organization-pole.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-organization-pole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:37:03+00:00</t>
+    <t>2025-12-29T10:57:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-organization-pole.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-organization-pole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:57:12+00:00</t>
+    <t>2025-12-29T16:37:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-organization-pole.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-organization-pole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T16:37:53+00:00</t>
+    <t>2025-12-29T16:39:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-organization-pole.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-organization-pole.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1988" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1988" uniqueCount="417">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T16:39:07+00:00</t>
+    <t>2025-12-29T16:43:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Organization</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Organization|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -462,6 +462,9 @@
     <t>fr-canonical</t>
   </si>
   <si>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-pole|2.2.0-ballot</t>
+  </si>
+  <si>
     <t>Organization.meta.security</t>
   </si>
   <si>
@@ -627,7 +630,7 @@
     <t>shortName</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-short-name}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-short-name|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -649,7 +652,7 @@
     <t>description</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-description}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-description|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -666,7 +669,7 @@
     <t>budgetLetter</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-budget-letter}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-budget-letter|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -762,7 +765,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -790,7 +793,7 @@
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-identifier-type</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-identifier-type|2.2.0-ballot</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -961,7 +964,7 @@
     <t>Need to be able to track the kind of organization that this is - different organization types have different uses.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-type</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-type|2.2.0-ballot</t>
   </si>
   <si>
     <t>No equivalent in v2</t>
@@ -1088,7 +1091,7 @@
     <t>Organization.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -1650,7 +1653,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="72.515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="82.0234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1665,7 +1668,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="57.421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="66.9296875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -2873,7 +2876,7 @@
         <v>77</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>3</v>
+        <v>144</v>
       </c>
       <c r="T11" t="s" s="2">
         <v>77</v>
@@ -2941,10 +2944,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2967,16 +2970,16 @@
         <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3002,13 +3005,13 @@
         <v>77</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>77</v>
@@ -3026,7 +3029,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -3055,10 +3058,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3081,16 +3084,16 @@
         <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3116,13 +3119,13 @@
         <v>77</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>77</v>
@@ -3140,7 +3143,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -3169,10 +3172,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3198,13 +3201,13 @@
         <v>129</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3254,7 +3257,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3283,10 +3286,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3309,16 +3312,16 @@
         <v>77</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3344,13 +3347,13 @@
         <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>77</v>
@@ -3368,7 +3371,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3397,14 +3400,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3423,16 +3426,16 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3482,7 +3485,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3500,7 +3503,7 @@
         <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>77</v>
@@ -3511,14 +3514,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3537,16 +3540,16 @@
         <v>77</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3596,7 +3599,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3614,7 +3617,7 @@
         <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>77</v>
@@ -3625,10 +3628,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3654,10 +3657,10 @@
         <v>108</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3706,7 +3709,7 @@
         <v>114</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3735,13 +3738,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>77</v>
@@ -3763,13 +3766,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3820,7 +3823,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3829,7 +3832,7 @@
         <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>116</v>
@@ -3849,13 +3852,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3877,13 +3880,13 @@
         <v>77</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3934,7 +3937,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3943,7 +3946,7 @@
         <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>116</v>
@@ -3963,13 +3966,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>77</v>
@@ -3991,13 +3994,13 @@
         <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4048,7 +4051,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4057,7 +4060,7 @@
         <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>116</v>
@@ -4077,13 +4080,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>77</v>
@@ -4105,13 +4108,13 @@
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4162,7 +4165,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4191,10 +4194,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4220,16 +4223,16 @@
         <v>108</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N23" t="s" s="2">
         <v>111</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -4278,7 +4281,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4296,7 +4299,7 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -4307,10 +4310,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4333,17 +4336,17 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -4392,7 +4395,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4401,30 +4404,30 @@
         <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4533,10 +4536,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4647,10 +4650,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4673,19 +4676,19 @@
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -4710,11 +4713,11 @@
         <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>77</v>
@@ -4732,7 +4735,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4747,10 +4750,10 @@
         <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
@@ -4761,10 +4764,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4787,19 +4790,19 @@
         <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4824,11 +4827,11 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y28" s="2"/>
       <c r="Z28" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
@@ -4846,7 +4849,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4861,10 +4864,10 @@
         <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
@@ -4875,10 +4878,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4904,16 +4907,16 @@
         <v>129</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -4926,7 +4929,7 @@
         <v>77</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="U29" t="s" s="2">
         <v>77</v>
@@ -4962,7 +4965,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4977,13 +4980,13 @@
         <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -4991,10 +4994,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5020,13 +5023,13 @@
         <v>101</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5040,7 +5043,7 @@
         <v>77</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="U30" t="s" s="2">
         <v>77</v>
@@ -5076,7 +5079,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5091,13 +5094,13 @@
         <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5105,10 +5108,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5131,13 +5134,13 @@
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5188,7 +5191,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5203,13 +5206,13 @@
         <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5217,10 +5220,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5243,16 +5246,16 @@
         <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5302,7 +5305,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5317,13 +5320,13 @@
         <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5331,10 +5334,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5357,70 +5360,70 @@
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="P33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q33" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="R33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF33" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="P33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q33" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="R33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5435,24 +5438,24 @@
         <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5475,19 +5478,19 @@
         <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5512,11 +5515,11 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y34" s="2"/>
       <c r="Z34" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -5534,7 +5537,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5549,24 +5552,24 @@
         <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5592,16 +5595,16 @@
         <v>101</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5650,7 +5653,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5659,19 +5662,19 @@
         <v>87</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -5679,10 +5682,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5708,16 +5711,16 @@
         <v>101</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -5766,7 +5769,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5784,7 +5787,7 @@
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
@@ -5795,10 +5798,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5821,19 +5824,19 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -5882,7 +5885,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5891,19 +5894,19 @@
         <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -5911,10 +5914,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5937,19 +5940,19 @@
         <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5998,7 +6001,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6007,19 +6010,19 @@
         <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -6027,10 +6030,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6053,17 +6056,17 @@
         <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>77</v>
@@ -6112,7 +6115,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6127,10 +6130,10 @@
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>105</v>
@@ -6141,10 +6144,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6253,10 +6256,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6367,10 +6370,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6396,13 +6399,13 @@
         <v>101</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6452,7 +6455,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6461,7 +6464,7 @@
         <v>87</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>99</v>
@@ -6470,7 +6473,7 @@
         <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>77</v>
@@ -6481,10 +6484,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6510,13 +6513,13 @@
         <v>129</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6542,11 +6545,11 @@
         <v>77</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>77</v>
@@ -6564,7 +6567,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6582,7 +6585,7 @@
         <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -6593,10 +6596,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6619,16 +6622,16 @@
         <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6678,7 +6681,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6696,7 +6699,7 @@
         <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -6707,10 +6710,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6736,13 +6739,13 @@
         <v>101</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6792,7 +6795,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6810,7 +6813,7 @@
         <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>77</v>
@@ -6821,10 +6824,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6847,19 +6850,19 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -6908,7 +6911,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -6926,7 +6929,7 @@
         <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>77</v>
@@ -6937,10 +6940,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7049,10 +7052,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7163,14 +7166,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7192,16 +7195,16 @@
         <v>108</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>111</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7250,7 +7253,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7268,7 +7271,7 @@
         <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>77</v>
@@ -7279,10 +7282,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7305,17 +7308,17 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7340,13 +7343,13 @@
         <v>77</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>77</v>
@@ -7364,7 +7367,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7382,7 +7385,7 @@
         <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>77</v>
@@ -7393,10 +7396,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7419,17 +7422,17 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>77</v>
@@ -7478,7 +7481,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7493,10 +7496,10 @@
         <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>77</v>
@@ -7507,10 +7510,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7533,17 +7536,17 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -7592,7 +7595,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7607,10 +7610,10 @@
         <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>77</v>
@@ -7621,10 +7624,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7647,17 +7650,17 @@
         <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -7706,7 +7709,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7721,10 +7724,10 @@
         <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>77</v>
@@ -7735,10 +7738,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7761,17 +7764,17 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>77</v>
@@ -7820,7 +7823,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
